--- a/prod_merchant_update_1.xlsx
+++ b/prod_merchant_update_1.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>prod_merchant_update_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>merchant_ari</t>
   </si>
@@ -77,7 +74,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,14 +87,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,21 +116,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -153,21 +129,6 @@
     <border>
       <left style="thin">
         <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -186,29 +147,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -231,7 +189,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1263,7 +1220,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1274,104 +1231,95 @@
     <col min="3" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
+      <c r="B2" s="4">
+        <v>1052425</v>
+      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>1052425</v>
+      <c r="B3" s="6">
+        <v>97705</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>97705</v>
+      <c r="B4" s="6">
+        <v>998248</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>998248</v>
+      <c r="B5" s="6">
+        <v>1292974</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>1292974</v>
+      <c r="B6" s="6">
+        <v>1383351</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <v>1383351</v>
+      <c r="B7" s="6">
+        <v>124947</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>124947</v>
+      <c r="B8" s="6">
+        <v>882833</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>882833</v>
+      <c r="B9" s="6">
+        <v>557769</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>557769</v>
+      <c r="B10" s="6">
+        <v>1336196</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <v>1336196</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="B11" s="6">
         <v>1812375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/prod_merchant_update_1.xlsx
+++ b/prod_merchant_update_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>merchant_ari</t>
   </si>
@@ -22,31 +22,61 @@
     <t>IDLSL51894UAG260</t>
   </si>
   <si>
+    <t>1052425</t>
+  </si>
+  <si>
     <t>CX5KUZ23HA8XFEI8</t>
   </si>
   <si>
+    <t>97705</t>
+  </si>
+  <si>
     <t>DOREWVM19I4CUJKD</t>
   </si>
   <si>
+    <t>998248</t>
+  </si>
+  <si>
     <t>YY46JH7X4LGZBT81</t>
   </si>
   <si>
+    <t>1292974</t>
+  </si>
+  <si>
     <t>JYUKNRLHQ41DIWHQ</t>
   </si>
   <si>
+    <t>1383351</t>
+  </si>
+  <si>
     <t>9JM5AOGBHUO4D1XF</t>
   </si>
   <si>
+    <t>124947</t>
+  </si>
+  <si>
     <t>YSMK0GLV6QUC7XNG</t>
   </si>
   <si>
+    <t>882833</t>
+  </si>
+  <si>
     <t>1CKYYAZ3GSYNJVGZ</t>
   </si>
   <si>
+    <t>557769</t>
+  </si>
+  <si>
     <t>HYC07INDONA6A3YH</t>
   </si>
   <si>
+    <t>1336196</t>
+  </si>
+  <si>
     <t>A5V6M0BM35MX9BM7</t>
+  </si>
+  <si>
+    <t>1812375</t>
   </si>
 </sst>
 </file>
@@ -56,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -68,13 +98,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +122,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -115,6 +156,37 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -124,6 +196,31 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -141,32 +238,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -189,6 +338,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -205,10 +356,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -385,11 +536,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -398,33 +552,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -663,12 +817,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -949,7 +1103,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1220,7 +1374,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1228,7 +1382,8 @@
   <cols>
     <col min="1" max="1" width="19.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6719" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1238,86 +1393,119 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>1052425</v>
-      </c>
+      <c r="B2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>97705</v>
-      </c>
+      <c r="A3" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>998248</v>
-      </c>
+      <c r="A4" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1292974</v>
-      </c>
+      <c r="A5" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1383351</v>
-      </c>
+      <c r="A6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>124947</v>
-      </c>
+      <c r="A7" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>882833</v>
-      </c>
+      <c r="A8" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>557769</v>
-      </c>
+      <c r="A9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1336196</v>
-      </c>
+      <c r="A10" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1812375</v>
-      </c>
+      <c r="A11" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
